--- a/biology/Botanique/Cyclamen_repandum/Cyclamen_repandum.xlsx
+++ b/biology/Botanique/Cyclamen_repandum/Cyclamen_repandum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclamen repandum Sm., le cyclamen étalé, est une espèce de plante à fleurs de la famille des Primulaceae d'origine méditerranéenne, qui se rencontre depuis le sud de la France (Provence, où il est introduit, à l'exception de la forêt de Bestagne dans la presqu'île de Saint-Tropez où il est présumé indigène[1]), en passant par l'Italie, la Corse et la Sardaigne, jusque dans le nord de l’ex-Yougoslavie, l'Albanie et l’île de Corfou. En Algérie on rencontre localement la variété baborense Debussche &amp; Quézel.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclamen repandum Sm., le cyclamen étalé, est une espèce de plante à fleurs de la famille des Primulaceae d'origine méditerranéenne, qui se rencontre depuis le sud de la France (Provence, où il est introduit, à l'exception de la forêt de Bestagne dans la presqu'île de Saint-Tropez où il est présumé indigène), en passant par l'Italie, la Corse et la Sardaigne, jusque dans le nord de l’ex-Yougoslavie, l'Albanie et l’île de Corfou. En Algérie on rencontre localement la variété baborense Debussche &amp; Quézel.
 Cyclamen repandum est une plante de sous-bois qui fleurit au printemps (avril – mai). Ses fleurs carminées, très rarement blanches (f. album), à base plus foncée sont odorantes. Elles ont des pétales élancés, dont l’extrémité est élégamment contournée. Les feuilles sont larges et souvent marbrées, avec une bordure fortement dentée ou lobée, et ressemblent quelque peu à celles du lierre.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Espèces apparentées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclamen rhodium Gorer ex O. Schwarz &amp; Lepper (Syn. Cyclamen peloponnesiacum (Grey-Wilson) Kit Tan) a des feuilles plus larges et moins lobées que celles de Cyclamen repandum et qui sont souvent tachetées.
 subsp. rhodium, qu'on rencontre à Rhodes et localement à l’île de Cos, a fleurs blanches ou rose pâle à base pourprée et des feuilles plus lobées que les deux autres sous-espèces.
@@ -524,7 +538,7 @@
 			Cyclamen rhodium subsp. vividum.
 			Cyclamen balearicum à Majorque.
 			Cyclamen creticum.
-Une étude récente a montré que certaines populations de Corse (région de St-Florent) seraient en fait des hybrides Cyclamen repandum × balearicum [2]. L’existence de ces populations mixtes en Corse suggère que Cyclamen balearicum était déjà présent avant l’activité tectonique qui a isolé la Corse des Îles Baléares et du sud de la France[3].
+Une étude récente a montré que certaines populations de Corse (région de St-Florent) seraient en fait des hybrides Cyclamen repandum × balearicum . L’existence de ces populations mixtes en Corse suggère que Cyclamen balearicum était déjà présent avant l’activité tectonique qui a isolé la Corse des Îles Baléares et du sud de la France.
 </t>
         </is>
       </c>
@@ -553,7 +567,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclamen repandum craint les fortes gelées. Lorsqu’elle est cultivée en pleine terre, elle doit être plantée dans un endroit protégé des vents froids et en situation semi-ombragée. Les feuilles, très minces, craignent le soleil intense, qui les racornit. Il faut planter ses tubercules plus profondément que ceux des autres espèces.
 Les espèces apparentées sont gélives et doivent, sauf dans les régions au climat clément comme le Sud de l’Angleterre ou l’Ouest de la France, être cultivées en serre froide.
@@ -586,7 +602,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Languedoc-Roussillon.
 </t>
